--- a/whiteList.xlsx
+++ b/whiteList.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v_jinlqi\Desktop\whiteBalck\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v_jinlqi\Desktop\MainlandTrunksensitiveResults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A250075-EA28-4E5E-BAAF-A4A506D2E7A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8BB2CE1-22D3-41C2-9F10-D59901C170C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5070" yWindow="5070" windowWidth="32565" windowHeight="10335" xr2:uid="{B7C19D78-8B9D-477E-BDF0-EF0C1A5AD11C}"/>
+    <workbookView xWindow="4170" yWindow="9930" windowWidth="32565" windowHeight="10335" xr2:uid="{B7C19D78-8B9D-477E-BDF0-EF0C1A5AD11C}"/>
   </bookViews>
   <sheets>
     <sheet name="whitelist" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>英雄风格</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -68,6 +68,21 @@
   <si>
     <t>本游戏是一款玩法相对复杂的团队策略对战类游戏，适用于年满12周岁及以上的用户，建议未成年人在家长监护下使用游戏产品。</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>硬币收集大作战</t>
+  </si>
+  <si>
+    <t>捉捕大作战</t>
+  </si>
+  <si>
+    <t>优先得分，避免对战</t>
+  </si>
+  <si>
+    <t>对战道具</t>
+  </si>
+  <si>
+    <t>控制可达鸭的方向</t>
   </si>
   <si>
     <t>whiteList</t>
@@ -435,17 +450,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A134B6B-FDD0-2A43-97E7-3CE81C801352}">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:A14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
@@ -486,6 +499,31 @@
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/whiteList.xlsx
+++ b/whiteList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v_jinlqi\Desktop\MainlandTrunksensitiveResults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8BB2CE1-22D3-41C2-9F10-D59901C170C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27B3A05B-AD76-41A9-BAED-1828A49AA997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4170" yWindow="9930" windowWidth="32565" windowHeight="10335" xr2:uid="{B7C19D78-8B9D-477E-BDF0-EF0C1A5AD11C}"/>
+    <workbookView xWindow="975" yWindow="7155" windowWidth="32565" windowHeight="11790" xr2:uid="{B7C19D78-8B9D-477E-BDF0-EF0C1A5AD11C}"/>
   </bookViews>
   <sheets>
     <sheet name="whitelist" sheetId="2" r:id="rId1"/>
@@ -36,39 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t>英雄风格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>秒杀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>亿奥斯能量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>集结对战</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>集结参赛证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大师段位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>超核玩家</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>本游戏是一款玩法相对复杂的团队策略对战类游戏，适用于年满12周岁及以上的用户，建议未成年人在家长监护下使用游戏产品。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>硬币收集大作战</t>
   </si>
@@ -87,6 +55,33 @@
   <si>
     <t>whiteList</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英雄风格</t>
+  </si>
+  <si>
+    <t>秒杀</t>
+  </si>
+  <si>
+    <t>亿奥斯能量</t>
+  </si>
+  <si>
+    <t>集结对战</t>
+  </si>
+  <si>
+    <t>集结参赛证</t>
+  </si>
+  <si>
+    <t>大师段位</t>
+  </si>
+  <si>
+    <t>超核玩家</t>
+  </si>
+  <si>
+    <t>本游戏是一款玩法相对复杂的团队策略对战类游戏，适用于年满12周岁及以上的用户，建议未成年人在家长监护下使用游戏产品。</t>
+  </si>
+  <si>
+    <t>皮卡丘</t>
   </si>
 </sst>
 </file>
@@ -450,80 +445,87 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A134B6B-FDD0-2A43-97E7-3CE81C801352}">
-  <dimension ref="A1:A14"/>
+  <dimension ref="A1:A15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/whiteList.xlsx
+++ b/whiteList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v_jinlqi\Desktop\MainlandTrunksensitiveResults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27B3A05B-AD76-41A9-BAED-1828A49AA997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12BF0B3E-FD8C-4443-8586-F63171460D14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="975" yWindow="7155" windowWidth="32565" windowHeight="11790" xr2:uid="{B7C19D78-8B9D-477E-BDF0-EF0C1A5AD11C}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="32565" windowHeight="11790" xr2:uid="{B7C19D78-8B9D-477E-BDF0-EF0C1A5AD11C}"/>
   </bookViews>
   <sheets>
     <sheet name="whitelist" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>硬币收集大作战</t>
   </si>
@@ -82,13 +82,97 @@
   </si>
   <si>
     <t>皮卡丘</t>
+  </si>
+  <si>
+    <t>能量奖励</t>
+  </si>
+  <si>
+    <t>在对战中，宝可梦佩戴的持有物能力值会随宝可梦等级提升而增加。</t>
+  </si>
+  <si>
+    <t>也可通过分解不需要的持有物转换的能量再次抽取持有物获得。</t>
+  </si>
+  <si>
+    <t>钻石Ⅲ</t>
+  </si>
+  <si>
+    <t>钻石Ⅱ</t>
+  </si>
+  <si>
+    <t>钻石Ⅰ</t>
+  </si>
+  <si>
+    <t>钻石奖章Ⅲ</t>
+  </si>
+  <si>
+    <t>钻石奖章Ⅱ</t>
+  </si>
+  <si>
+    <t>钻石奖章Ⅰ</t>
+  </si>
+  <si>
+    <t>代表钻石段位的奖章
+通过参与主题积分赛，不断获取段位积分，收集更多奖章吧！</t>
+  </si>
+  <si>
+    <t>钻石奖章Ⅱ
+通过参与主题积分赛，不断获取段位积分，收集更多奖章吧！</t>
+  </si>
+  <si>
+    <t>钻石奖章Ⅰ
+通过参与主题积分赛，不断获取段位积分，收集更多奖章吧！</t>
+  </si>
+  <si>
+    <t>对战被赞</t>
+  </si>
+  <si>
+    <t>得分大师</t>
+  </si>
+  <si>
+    <t>防守大师</t>
+  </si>
+  <si>
+    <t>获得排位赛大师印记总数</t>
+  </si>
+  <si>
+    <t>本赛季大师印记！</t>
+  </si>
+  <si>
+    <t>隐藏对战记录</t>
+  </si>
+  <si>
+    <t>对战记录</t>
+  </si>
+  <si>
+    <t>对战区域排名</t>
+  </si>
+  <si>
+    <t>退出对战区域</t>
+  </si>
+  <si>
+    <t>对战区域</t>
+  </si>
+  <si>
+    <t>高级对战通行证40级可获得</t>
+  </si>
+  <si>
+    <t>高级对战通行证50级可获得</t>
+  </si>
+  <si>
+    <t>高级对战通行证1级可获得</t>
+  </si>
+  <si>
+    <t>对战通行证</t>
+  </si>
+  <si>
+    <t>战区排名</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,6 +188,18 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -113,8 +209,15 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="1" diagonalDown="1">
       <left/>
       <right/>
       <top/>
@@ -127,10 +230,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -445,10 +556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A134B6B-FDD0-2A43-97E7-3CE81C801352}">
-  <dimension ref="A1:A15"/>
+  <dimension ref="A1:A42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A15"/>
+      <selection activeCell="A2" sqref="A2:A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -459,73 +570,208 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="A15" s="1" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" s="4" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/whiteList.xlsx
+++ b/whiteList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v_jinlqi\Desktop\MainlandTrunksensitiveResults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12BF0B3E-FD8C-4443-8586-F63171460D14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF6385C-1519-4546-B76F-081F16ED454A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="32565" windowHeight="11790" xr2:uid="{B7C19D78-8B9D-477E-BDF0-EF0C1A5AD11C}"/>
+    <workbookView xWindow="7995" yWindow="3075" windowWidth="31890" windowHeight="14655" xr2:uid="{B7C19D78-8B9D-477E-BDF0-EF0C1A5AD11C}"/>
   </bookViews>
   <sheets>
     <sheet name="whitelist" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="187">
   <si>
     <t>硬币收集大作战</t>
   </si>
@@ -60,9 +60,6 @@
     <t>英雄风格</t>
   </si>
   <si>
-    <t>秒杀</t>
-  </si>
-  <si>
     <t>亿奥斯能量</t>
   </si>
   <si>
@@ -79,9 +76,6 @@
   </si>
   <si>
     <t>本游戏是一款玩法相对复杂的团队策略对战类游戏，适用于年满12周岁及以上的用户，建议未成年人在家长监护下使用游戏产品。</t>
-  </si>
-  <si>
-    <t>皮卡丘</t>
   </si>
   <si>
     <t>能量奖励</t>
@@ -166,13 +160,454 @@
   </si>
   <si>
     <t>战区排名</t>
+  </si>
+  <si>
+    <t>雪人炸弹</t>
+  </si>
+  <si>
+    <t>Nintendo Switch</t>
+  </si>
+  <si>
+    <t>殿堂大师</t>
+  </si>
+  <si>
+    <t>冠军大师</t>
+  </si>
+  <si>
+    <t>对战中心</t>
+  </si>
+  <si>
+    <t>休闲对战</t>
+  </si>
+  <si>
+    <t>训练家&lt;color=#ffe159&gt;6&lt;/color&gt;级时，可与其他训练家进行匹配对战</t>
+  </si>
+  <si>
+    <t>在粉红的花园中对战吧！</t>
+  </si>
+  <si>
+    <t>请先根据指示前往对战中心吧！</t>
+  </si>
+  <si>
+    <t>牵绊糖果不足，可通过能量抽取</t>
+  </si>
+  <si>
+    <t>由于您的腾讯游戏信用&lt;350分，存在异常或不良游戏行为，进行对战获取道具数量受到限制。\n本周可获取能量：{0}/{1}\n本周可获取徽章：{2}/{3}</t>
+  </si>
+  <si>
+    <t>体表的组织与球果的成分极为接近，不可思议。当它情绪焦躁时所放出的电流，能量足以匹敌２０次的落雷。</t>
+  </si>
+  <si>
+    <t>疯狂舞动白发的姿态如同死神。在足以撕裂自身的深刻仇怨驱使下，抱定同归于尽之心袭杀仇敌。</t>
+  </si>
+  <si>
+    <t>会从头部的触角中释放出强烈的臭气，以此来赶走敌人保护自己。</t>
+  </si>
+  <si>
+    <t>据说会用后脚上小小的蹼 泅水渡海，穿越岛屿 来躲避敌人的追击。</t>
+  </si>
+  <si>
+    <t>有着比钻石还要坚硬的角。感觉到敌人的气息时，背上的刺就会一起竖起来全力迎敌。</t>
+  </si>
+  <si>
+    <t>人们认为它额头上金币浮现出的纹路中蕴藏着解开极巨化之谜的关键。</t>
+  </si>
+  <si>
+    <t>虽然危险，却向往登上陆地。 因为它还只能晃晃悠悠地走路， 所以被敌人发现后会慌忙逃入水中。</t>
+  </si>
+  <si>
+    <t>手臂里充斥着超极巨化之力，因此能施展出破坏力不亚于炸弹的拳击。</t>
+  </si>
+  <si>
+    <t>惊人的能量强化了 尾巴上大舌贝的力量。 对呆呆兽倒没什么影响。</t>
+  </si>
+  <si>
+    <t>２个脑袋从来不会同时睡着。为了防止在睡着时受到敌人袭击，所以它们会轮流望风。</t>
+  </si>
+  <si>
+    <t>被比钻石还坚硬的壳所包裹。不过内部却是超乎意料的柔软。</t>
+  </si>
+  <si>
+    <t>身体里填满了诅咒的能量。据说它巨大嘴巴的另一端连接着死后的世界。</t>
+  </si>
+  <si>
+    <t>会用精神力量来迎击敌人。 ３个脑袋会分别放出念力， 所以威力也会变成３倍。</t>
+  </si>
+  <si>
+    <t>被敌人抓住后藤蔓会一下断开。因为完全不疼，所以它会趁那个空当逃走。第二天就能长出新的藤蔓。</t>
+  </si>
+  <si>
+    <t>沐浴惊人能量后的孩子 得到了暂时性的成长。 母亲却十分焦虑。</t>
+  </si>
+  <si>
+    <t>用火之能量加热过的角高达摄氏１０００度，被它刺中的敌人会遭受创伤和灼伤之苦。</t>
+  </si>
+  <si>
+    <t>从角尖端的洞猛烈地喷射出水，以形成高压的水流将敌人贯穿。</t>
+  </si>
+  <si>
+    <t>超极巨化之力使得颈部的绒毛变得更加地毛茸茸。会用绒毛包住敌人，同时掳获它的心。</t>
+  </si>
+  <si>
+    <t>操控冰的传说的鸟宝可梦。因为拍动翅膀就能冷却空气，所以据说急冻鸟飞过就会下雪。</t>
+  </si>
+  <si>
+    <t>就算受到敌人的袭击，也能一溜烟地钻进细小的缝隙里逃走。手脚虽短却十分灵活。</t>
+  </si>
+  <si>
+    <t>超级进化那过多的能量刺激了遗传基因。 本应脱落的体毛也重新长了出来。</t>
+  </si>
+  <si>
+    <t>在深夜里惊吓人类，然后把收集到的恐惧之心转化为自己的能量的宝可梦。</t>
+  </si>
+  <si>
+    <t>据说当大岩蛇活到了１００年以上，身体的成分就会变得如同钻石一般。</t>
+  </si>
+  <si>
+    <t>由于体内存储了过多的超级进化能量， 所以在经过很长一段时间后， 它的身体就会开始熔化。</t>
+  </si>
+  <si>
+    <t>壳是由皮肤冷却后凝固而成的。只要碰一下就会崩裂成碎片。进入熔岩中就会恢复到原来的大小。</t>
+  </si>
+  <si>
+    <t>后背由于体内注入了惊人的 能量而裂开了。只剩下破坏的 本能在驱使着它行动。</t>
+  </si>
+  <si>
+    <t>靠着体内长出的叶子，可以方便地在森林里隐藏身形躲避敌人。是生活在密林里的爬树高手。</t>
+  </si>
+  <si>
+    <t>体内长出的叶子非常锋利。会用敏捷的动作在树枝间跳来跳去，从敌人的头上或背后猛扑过去。</t>
+  </si>
+  <si>
+    <t>据说在使用预知未来的能力察觉到训练家有危险时，就会使出最强的精神能量。</t>
+  </si>
+  <si>
+    <t>虽然是世界上最吊儿郎当的宝可梦，但能通过把积蓄的能量一次放出，从而发挥出惊人的力量。</t>
+  </si>
+  <si>
+    <t>胸口的宝石沐浴了 超级进化的能量后膨胀起来， 将皮肤撑裂，然后飞出。</t>
+  </si>
+  <si>
+    <t>据说通过冥想体内的能量就会提高，第６感也会随之变得敏锐起来。会和山野融为一体并借此来消除自己的气息。</t>
+  </si>
+  <si>
+    <t>黄色的花纹是以前的旧伤。 超级进化的能量在里面游走， 一阵一阵的疼痛，好像很痛苦。</t>
+  </si>
+  <si>
+    <t>当它旋转自己的身体时，会发出太阳般的光芒，让敌人的眼睛暂时失明。</t>
+  </si>
+  <si>
+    <t>过大的能量增强了诅咒， 无法压制。 就连自己的训练家也会憎恨。</t>
+  </si>
+  <si>
+    <t>会让声音在身体的空洞里回响。发怒时的叫声会变成超音波，拥有吹飞敌人的威力。</t>
+  </si>
+  <si>
+    <t>它那引以为傲的２根翅膀 因强大的能量而扭曲着粘在一起， 让它倍感压力，到处横冲直撞。</t>
+  </si>
+  <si>
+    <t>会从２个大脑里放射出 强力的精神能量， 封住猎物的行动。</t>
+  </si>
+  <si>
+    <t>通过自然的能量进行原始回归，恢复原本的样子。其力量可以呼风唤雨扩张海洋。</t>
+  </si>
+  <si>
+    <t>该宝可梦据说是大地的化身。传说，为了寻求自然的能量，它曾不断与盖欧卡争斗。</t>
+  </si>
+  <si>
+    <t>在锐利的爪子尖端有强烈的电流流过，只要稍稍碰擦到，就能让敌人晕厥。</t>
+  </si>
+  <si>
+    <t>会用馥郁芬芳的花香迷惑敌人，并用荆棘上的鞭子猛力抽打对方。</t>
+  </si>
+  <si>
+    <t>像鞭子一样挥动耳朵鞭打敌人。 脾气暴躁又好战。</t>
+  </si>
+  <si>
+    <t>从遥远的过去开始就作为能召唤雨云的宝可梦被供奉着。时不时会被埋入地下。</t>
+  </si>
+  <si>
+    <t>潜伏在地洞内，如果有猎物或敌人经过，就会扑出来咬住。有时会用力过猛牙齿豁掉。</t>
+  </si>
+  <si>
+    <t>因超级进化，波导发生膨胀。 会在斗争本能的驱使下， 用无情的手段攻击敌人。</t>
+  </si>
+  <si>
+    <t>会引发暴风雪，让周围变得一片雪白。别名叫冰雪怪物。</t>
+  </si>
+  <si>
+    <t>是会带来胜利的宝可梦。据说带着比克提尼的训练家会赢得任何对战。</t>
+  </si>
+  <si>
+    <t>像滑行一样在地面奔跑。用敏捷的动作迷惑敌人，然后用藤鞭了结。</t>
+  </si>
+  <si>
+    <t>可以轻巧地躲避敌人的攻击，从鼻子里射出火球来。会用火烤树果吃。</t>
+  </si>
+  <si>
+    <t>能在敌人眨眼的瞬间，用前脚上带有的双足刃切斩对手，然后将其收回。</t>
+  </si>
+  <si>
+    <t>用体内的发光物质让眼珠和身体闪闪发光，使来袭的敌人畏缩。</t>
+  </si>
+  <si>
+    <t>燃烧体内的火焰，从头和尾巴纷纷扬扬地撒出火花，把敌人都烧焦。</t>
+  </si>
+  <si>
+    <t>橙色的结晶开始发光的时候，一定特别小心，因为它马上就会射出能量。</t>
+  </si>
+  <si>
+    <t>被坚硬的壳保护着。像轮胎那样地旋转，猛烈地撞击敌人。</t>
+  </si>
+  <si>
+    <t>颜色相同的会集结成群。最大的敌人是红色的野蛮鲈鱼的群体。</t>
+  </si>
+  <si>
+    <t>潜藏在沙中像游泳一样移动。是为了不被敌人发现和不让体温下降而采取的机智行为。</t>
+  </si>
+  <si>
+    <t>能量之源是体内的火焰。如果火焰变小了，它马上就会睡着。</t>
+  </si>
+  <si>
+    <t>由于居住在积雪深厚的地域，火囊也因受到冷却而退化了。取而代之的是制造冷气的器官。</t>
+  </si>
+  <si>
+    <t>刻有诅咒的黏土板附在了哭哭面具上。据说会吸收怨念的能量。</t>
+  </si>
+  <si>
+    <t>如果被敌人袭击，就会从全身的羽毛里喷出水花。混在一片水雾中逃之夭夭。</t>
+  </si>
+  <si>
+    <t>当愤怒达到极限时，就会喷出暴风雪，把敌人和伙伴都冻成冰块。</t>
+  </si>
+  <si>
+    <t>会从尖刺的前端发出强力电击。红色核心里填充着非常多的能量。</t>
+  </si>
+  <si>
+    <t>一旦被敌人袭击，便会关上壳盖保护自己。不过盖盖虫能打得开。</t>
+  </si>
+  <si>
+    <t>红色脸孔上的皮肤比岩石还要硬。 在狭窄的洞窟中， 会用脸朝向敌人发动突击。</t>
+  </si>
+  <si>
+    <t>头上的角是锋利的刀刃。用旋风般的动作戏弄敌人，迅速切斩。</t>
+  </si>
+  <si>
+    <t>下半身被云一样的能量体包裹着。以３００公里的时速在空中飞行。</t>
+  </si>
+  <si>
+    <t>等待着用真实与理想填补自己失去的身体的英雄，是冰之传说的宝可梦。</t>
+  </si>
+  <si>
+    <t>覆盖着身体的结实外壳能反弹敌人的攻击，会用锐利的刺反击。</t>
+  </si>
+  <si>
+    <t>雌性的火炎狮会合力捕杀猎物，因此群体中不会有谁挨饿。</t>
+  </si>
+  <si>
+    <t>抱着红花的花叶蒂。会将枯萎的花里剩余的能量激发出来，从而使其恢复生机。</t>
+  </si>
+  <si>
+    <t>完整的基格尔德的样子。 从胸部的嘴里放射出 能摧毁一切的高能量。</t>
+  </si>
+  <si>
+    <t>用腹部发电，并把电力集中至大大的颚部，释放出能量惊人的光束。</t>
+  </si>
+  <si>
+    <t>吸食了兰紫色花蜜的样子。会通过奇幻的舞步召唤出死者的灵魂。</t>
+  </si>
+  <si>
+    <t>单独１只十分弱小，所以学会了通过群体行动来对抗敌人的能力。</t>
+  </si>
+  <si>
+    <t>非常讨厌在睡午觉时被打扰。会用通过日光浴储存的能量放射出光束。</t>
+  </si>
+  <si>
+    <t>为了胜利会不择手段。看准敌人疏忽的时机，用前脚上的小爪子解决对方。</t>
+  </si>
+  <si>
+    <t>栖息于温暖的浅滩。遇到敌人时，会从嘴里吐出内脏来攻击对方。</t>
+  </si>
+  <si>
+    <t>背上的甲壳上敷了炸药。会用大爆炸去回击来攻击自己的敌人。</t>
+  </si>
+  <si>
+    <t>遇到敌人便会敲响尾部的鳞片来威吓对方。只会与不畏惧自己的强者战斗。</t>
+  </si>
+  <si>
+    <t>被称为守护神， 但拥有将视为敌人者 彻底击溃的强悍。</t>
+  </si>
+  <si>
+    <t>打开了究极之洞的结果是， 把异世界的能量和生命召唤到 这个世界的事也时有发生。</t>
+  </si>
+  <si>
+    <t>是危险的究极异兽中的一种。 从它巨大的双臂中检测出来 很高的能量反应。</t>
+  </si>
+  <si>
+    <t>为了寻找作为能量的光 而发狂的样子看上去有些痛苦。 好像存在于其他世界。</t>
+  </si>
+  <si>
+    <t>不断吞食索尔迦雷欧的光的样子。 会扑向敌人，用背上和四肢的爪子 将对手劈开。</t>
+  </si>
+  <si>
+    <t>露奈雅拉已经没有自我意识。 它被奈克洛兹玛支配， 不断释放出全部能量。</t>
+  </si>
+  <si>
+    <t>吸收压倒性的光能量后 变化而成的样子。 从全身发射出激光。</t>
+  </si>
+  <si>
+    <t>用与雷落下相同的速度急速接近敌人。会用锐利的爪子将对方撕得粉碎。</t>
+  </si>
+  <si>
+    <t>不断奔跑使体温升高后，火之能量会在它身体循环，促使它发挥出真正的力量。</t>
+  </si>
+  <si>
+    <t>闪焰王牌熊熊燃烧的斗志转移到了超极巨火焰球上，使其能够百发百中地将敌人烧焦。</t>
+  </si>
+  <si>
+    <t>很有战略头脑，会把手掌分泌出的水分做成水弹攻击敌人。</t>
+  </si>
+  <si>
+    <t>只要发现长有树果的树，即使是在对战当中也会一溜烟地前去采集。</t>
+  </si>
+  <si>
+    <t>全身以大脑为中心巨大化。拥有无与伦比的智力，和庞大的精神能量。</t>
+  </si>
+  <si>
+    <t>超极巨化之力使它开始用后脚站立。会压住敌人，用巨大的颚部解决对方。</t>
+  </si>
+  <si>
+    <t>会向敌人大量喷射体内的蜜，让对方在黏糊糊的黏液里窒息。</t>
+  </si>
+  <si>
+    <t>虽然拥有一击定胜负的威力，由于记性实在太差，对战还没结束就会忘记对手是谁。</t>
+  </si>
+  <si>
+    <t>发热时的体温大约有８００度。会像鞭子那样弯曲身体朝着敌人弹跳过去。</t>
+  </si>
+  <si>
+    <t>会用角来接收其他生物的正面情绪，然后将其转换为自身的能量。</t>
+  </si>
+  <si>
+    <t>颊囊中的电能转化成了恶属性的能量。因为肚子饿扁了，所以非常凶暴。</t>
+  </si>
+  <si>
+    <t>鼻子里储存着满满的能量。一旦将能量喷射出去，甚至能推平山岳，改变地形。</t>
+  </si>
+  <si>
+    <t>变得如同摩天大楼般高大。受到体内能量溢出的影响，身体的一部分会发出亮光。</t>
+  </si>
+  <si>
+    <t>能以时速２００公里四处飞行。一旦输了对战，多龙梅西亚会二话不说地消失无踪。</t>
+  </si>
+  <si>
+    <t>被称为传说中的英雄。能够吸收金属，将之转化为武器来战斗。</t>
+  </si>
+  <si>
+    <t>会用胸部的核心吸收伽勒尔地区涌出的能量，借以保持自己的活力。</t>
+  </si>
+  <si>
+    <t>一击必杀是它的信条。飞冲到对方的怀中，用自己经过千锤百炼的拳头一拳击入。</t>
+  </si>
+  <si>
+    <t>据说它虽然对挡路之徒手下毫不留情，但在战斗结束后却会不计前嫌地帮敌人疗伤。</t>
+  </si>
+  <si>
+    <t>灵巧地操控长长的体毛下隐藏着的藤蔓，接着把坚硬的花苞甩向敌人。</t>
+  </si>
+  <si>
+    <t>会躺在温暖的岩石上，利用四边形的鳞片吸收的热量来制造火之能量。</t>
+  </si>
+  <si>
+    <t>由于火之能量与过剩的生命力相互结合，使它头上出现了蛋状的火球。</t>
+  </si>
+  <si>
+    <t>认真起来时会靠折起的脚站起来进入决战模式。会在短时间内压制敌人。</t>
+  </si>
+  <si>
+    <t>当群体受到袭击的时候，会率先挑起战斗，并活用电击的格斗招式打倒敌人。</t>
+  </si>
+  <si>
+    <t>虽然平时动作慢吞吞的，但在不得不面对战斗时，会以迅雷不及掩耳的身手击溃敌人。</t>
+  </si>
+  <si>
+    <t>从头上的果实喷出油，以此保护自己不受敌人攻击。那种油苦涩到能让人跳起来。</t>
+  </si>
+  <si>
+    <t>大大的喉囊里可以储存能量。会一口气释放能量将敌人轰飞。</t>
+  </si>
+  <si>
+    <t>把辣味成分转换成火之能量，然后从红色的头朝四周发射出辣到爆炸的火焰。</t>
+  </si>
+  <si>
+    <t>在增加到８个之多的汽缸里引爆混有毒素和岩石成分的气体来制造能量。</t>
+  </si>
+  <si>
+    <t>遭到敌人攻击时，会把体毛当做拳头使用，朝着敌人大秀拳头风暴。</t>
+  </si>
+  <si>
+    <t>为了避免积蓄在肚子里的能量流出，它似乎会把自己的脖子系在颈根部上。</t>
+  </si>
+  <si>
+    <t>一旦遭到敌人袭击，就会从躯体伸出粗粗的刺来反击。此招式很危险，需有切断身体的觉悟。</t>
+  </si>
+  <si>
+    <t>会用背鳍来吸收热量，并将其转换成冰之能量。温度越高，积累的能量就越多。</t>
+  </si>
+  <si>
+    <t>结算能量</t>
+  </si>
+  <si>
+    <t>您已经在匹配中，无法进入对战中心</t>
+  </si>
+  <si>
+    <t>完成对局积攒能量，抽取丰富奖励</t>
+  </si>
+  <si>
+    <t>前往对战</t>
+  </si>
+  <si>
+    <t>嗨，欢迎来到&lt;color=#ffd061&gt;对战中心&lt;/color&gt;！我是琳恩博士的助手&lt;color=#ffd061&gt;尔宾&lt;/color&gt;，负责亿奥斯岛的赛事管理~</t>
+  </si>
+  <si>
+    <t>这里就是新手学习的地方，在正式教学之前，请告知我你的对战经历，我将根据你的经历给予合适的教学。</t>
+  </si>
+  <si>
+    <t>看来你已经掌握了不少对战技巧了~</t>
+  </si>
+  <si>
+    <t>通过刚才的对战，喷火龙与你的牵绊等级提升了，可以解锁新的招式！</t>
+  </si>
+  <si>
+    <t>前往对战中心&lt;color=#ffd061&gt;学习基础知识&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>前往对战中心&lt;color=#ffd061&gt;解锁新玩法&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>前往对战中心&lt;color=#ffd061&gt;解锁排位赛&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>快去对战中心了解下吧！</t>
+  </si>
+  <si>
+    <t>通过前面的对战，现在你可以&lt;color=#ffd061&gt;开启&lt;/color&gt;一次&lt;color=#ffd061&gt;奖励&lt;/color&gt;了，快来试一下吧！</t>
+  </si>
+  <si>
+    <t>解锁招式后需要选择该招式才能在对战中使用哦！</t>
+  </si>
+  <si>
+    <t>再来一局，获取&lt;color=#ffd061&gt;新的宝可梦参赛证&lt;/color&gt;！</t>
+  </si>
+  <si>
+    <t>恭喜你升到6级！尔宾正在找你，快去&lt;color=#ffd061&gt;对战中心&lt;/color&gt;找他吧。</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,18 +623,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -209,15 +632,8 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="1" diagonalDown="1">
       <left/>
       <right/>
       <top/>
@@ -230,23 +646,26 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FFDE322C"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE9E8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -556,10 +975,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A134B6B-FDD0-2A43-97E7-3CE81C801352}">
-  <dimension ref="A1:A42"/>
+  <dimension ref="A1:A187"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A42"/>
+      <selection activeCell="A2" sqref="A2:A187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -570,212 +989,940 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+      <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+      <c r="A16" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+      <c r="A17" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
+      <c r="A18" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
+      <c r="A19" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
+      <c r="A20" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
+      <c r="A21" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
+      <c r="A22" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
+      <c r="A23" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
+      <c r="A24" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
+      <c r="A25" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
+      <c r="A26" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
+      <c r="A27" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
+      <c r="A28" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
+      <c r="A29" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" s="4" t="s">
+      <c r="A30" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" s="4" t="s">
+      <c r="A31" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A32" s="4" t="s">
+      <c r="A32" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" s="4" t="s">
+      <c r="A33" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
+      <c r="A34" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" s="4" t="s">
+      <c r="A35" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" s="4" t="s">
+      <c r="A36" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
+      <c r="A37" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" s="4" t="s">
+      <c r="A38" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39" s="4" t="s">
+      <c r="A39" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A40" s="4" t="s">
+      <c r="A40" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
+      <c r="A41" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A42" s="4" t="s">
+      <c r="A42" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>186</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A2:A187">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/whiteList.xlsx
+++ b/whiteList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v_jinlqi\Desktop\MainlandTrunksensitiveResults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF6385C-1519-4546-B76F-081F16ED454A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81ED016D-9B56-4CBE-BD1C-303BEA6886D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7995" yWindow="3075" windowWidth="31890" windowHeight="14655" xr2:uid="{B7C19D78-8B9D-477E-BDF0-EF0C1A5AD11C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{B7C19D78-8B9D-477E-BDF0-EF0C1A5AD11C}"/>
   </bookViews>
   <sheets>
     <sheet name="whitelist" sheetId="2" r:id="rId1"/>
@@ -36,22 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="187">
-  <si>
-    <t>硬币收集大作战</t>
-  </si>
-  <si>
-    <t>捉捕大作战</t>
-  </si>
-  <si>
-    <t>优先得分，避免对战</t>
-  </si>
-  <si>
-    <t>对战道具</t>
-  </si>
-  <si>
-    <t>控制可达鸭的方向</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="195">
   <si>
     <t>whiteList</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -78,6 +63,21 @@
     <t>本游戏是一款玩法相对复杂的团队策略对战类游戏，适用于年满12周岁及以上的用户，建议未成年人在家长监护下使用游戏产品。</t>
   </si>
   <si>
+    <t>硬币收集大作战</t>
+  </si>
+  <si>
+    <t>捉捕大作战</t>
+  </si>
+  <si>
+    <t>优先得分，避免对战</t>
+  </si>
+  <si>
+    <t>对战道具</t>
+  </si>
+  <si>
+    <t>控制可达鸭的方向</t>
+  </si>
+  <si>
     <t>能量奖励</t>
   </si>
   <si>
@@ -601,6 +601,30 @@
   </si>
   <si>
     <t>恭喜你升到6级！尔宾正在找你，快去&lt;color=#ffd061&gt;对战中心&lt;/color&gt;找他吧。</t>
+  </si>
+  <si>
+    <t>节奏大师</t>
+  </si>
+  <si>
+    <t>对战指南</t>
+  </si>
+  <si>
+    <t>美食烹饪大师装扮</t>
+  </si>
+  <si>
+    <t>拯救世界的超级英雄</t>
+  </si>
+  <si>
+    <t>英雄崛起</t>
+  </si>
+  <si>
+    <t>英雄主题同款</t>
+  </si>
+  <si>
+    <t>大师赛</t>
+  </si>
+  <si>
+    <t>宝可梦参赛证</t>
   </si>
 </sst>
 </file>
@@ -975,77 +999,77 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A134B6B-FDD0-2A43-97E7-3CE81C801352}">
-  <dimension ref="A1:A187"/>
+  <dimension ref="A1:A195"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A187"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
@@ -1916,6 +1940,46 @@
     <row r="187" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>186</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>194</v>
       </c>
     </row>
   </sheetData>

--- a/whiteList.xlsx
+++ b/whiteList.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v_jinlqi\Desktop\MainlandTrunksensitiveResults\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MainlandTrunksensitiveResults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81ED016D-9B56-4CBE-BD1C-303BEA6886D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B2373F6-7EEB-4CD5-8561-475B0AA99E33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{B7C19D78-8B9D-477E-BDF0-EF0C1A5AD11C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{B7C19D78-8B9D-477E-BDF0-EF0C1A5AD11C}"/>
   </bookViews>
   <sheets>
     <sheet name="whitelist" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="403">
   <si>
     <t>whiteList</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -625,13 +625,662 @@
   </si>
   <si>
     <t>宝可梦参赛证</t>
+  </si>
+  <si>
+    <t>得分区控制器</t>
+  </si>
+  <si>
+    <t>租用参赛证</t>
+  </si>
+  <si>
+    <t>漆黑英雄</t>
+  </si>
+  <si>
+    <t>能量中心</t>
+  </si>
+  <si>
+    <t>废弃</t>
+  </si>
+  <si>
+    <t>全马力对战</t>
+  </si>
+  <si>
+    <t>污泥炸弹</t>
+  </si>
+  <si>
+    <t>自定义对战</t>
+  </si>
+  <si>
+    <t>种子炸弹</t>
+  </si>
+  <si>
+    <t>酸液炸弹</t>
+  </si>
+  <si>
+    <t>CDKEY</t>
+  </si>
+  <si>
+    <t>能量小子</t>
+  </si>
+  <si>
+    <t>可达鸭因为头疼，导致念力无法控制，不小心破坏了亿奥斯岛的雕像，快去帮忙修复雕像吧</t>
+  </si>
+  <si>
+    <t>因为可达鸭登岛的时候太激动，导致头疼无法控制念力一不小心破坏了雕像。</t>
+  </si>
+  <si>
+    <t>糟糕，可达鸭开始头痛，念力不受控制了！</t>
+  </si>
+  <si>
+    <t>站立不动时（不主动使用左摇杆移动），自身每过1秒会叠加1层6%的伤害加成，最多叠加5层。开始移动后就会消失</t>
+  </si>
+  <si>
+    <t>点燃敌人</t>
+  </si>
+  <si>
+    <t>参与对战即可提升积分，积分提升到一定阶段即可获得更高级的&lt;color=#ff9921&gt;奖杯&lt;/color&gt;以及&lt;color=#ff9921&gt;丰厚的奖励&lt;/color&gt;！
+※【强敌大挑战】、【守护巨锻匠】两个玩法，在奖杯积分较高时，游玩偏低难度时获得的积分数量会有所衰减。</t>
+  </si>
+  <si>
+    <t>短时间内连续命中同一个目标，会造成额外固定伤害。12秒冷却。</t>
+  </si>
+  <si>
+    <t>招式命中对手后，会使下一次技能的伤害提升，最多3层。</t>
+  </si>
+  <si>
+    <t>短时间内受到大量伤害，自身会变得无法选中，10秒冷却。</t>
+  </si>
+  <si>
+    <t>每隔一段时间会在自身周围产生一个树果，拾取后回复自身体力值。</t>
+  </si>
+  <si>
+    <t>提升下次技能伤害</t>
+  </si>
+  <si>
+    <t>持续回血</t>
+  </si>
+  <si>
+    <t>技能附带延迟妨碍</t>
+  </si>
+  <si>
+    <t>金币获取途径</t>
+  </si>
+  <si>
+    <t>对战获取</t>
+  </si>
+  <si>
+    <t>测试期金币
+大量发生</t>
+  </si>
+  <si>
+    <t>测试期专属活动，对战金币加成300%！</t>
+  </si>
+  <si>
+    <t>残血收割</t>
+  </si>
+  <si>
+    <t>累计邀请5个好友参与预约，即可在测试期免费试穿限定时装</t>
+  </si>
+  <si>
+    <t>1：在本次测试期间通过活动邀请好友预约宝可梦大集结可以获得奖励并且在测试期间免费试穿限定训练家时装。</t>
+  </si>
+  <si>
+    <t>（1）只有参与宝可梦大集结测试的训练家才可以在游戏内通过邀请好友参与预约；
+（2）根据邀请的好友数量可以获得不同奖励，邀请1/3/５名好友参与预约可以在测试期间体验限定训练家时装；
+（3）必须通过游戏内的活动链接邀请的训练家才会被统计到进度中；
+（4）被邀请的训练家无法参与测试，但是在宝可梦大集结正式上线后会第一时间收到通知；
+（5）该活动仅在本次测试期间有效</t>
+  </si>
+  <si>
+    <t>丹帝羁绊降临</t>
+  </si>
+  <si>
+    <t>亿奥斯岛新增了很多主城小玩法，欢迎玩家们体验游玩，完成任务可领取奖励</t>
+  </si>
+  <si>
+    <t>会心大师</t>
+  </si>
+  <si>
+    <t>徽章激活：会心大师</t>
+  </si>
+  <si>
+    <t>破点大师</t>
+  </si>
+  <si>
+    <t>来吧，要选哪一只宝可梦的参赛证呢？</t>
+  </si>
+  <si>
+    <t>宝可梦&lt;color=#ffd061&gt;被打倒&lt;/color&gt;后，&lt;color=#ffd061&gt;会掉落一些&lt;emoji=202&gt;能量&lt;/color&gt;。不过，这时候可没空失望！宝可梦很快就能&lt;color=#ffd061&gt;以体力全满的状态&lt;/color&gt;回到开始点。重新投入对战就是了！</t>
+  </si>
+  <si>
+    <t>好的！了解了，那请收下这张喷火龙的参赛证！</t>
+  </si>
+  <si>
+    <t>热血英雄：发饰</t>
+  </si>
+  <si>
+    <t>热血英雄：服饰</t>
+  </si>
+  <si>
+    <t>热血英雄</t>
+  </si>
+  <si>
+    <t>甲贺忍蛙参赛证及其电子服即将上架！</t>
+  </si>
+  <si>
+    <t>甲贺忍蛙参赛证及其电子服已上架！</t>
+  </si>
+  <si>
+    <t>冰晶誓言，唤醒你和宝可梦之间的羁绊</t>
+  </si>
+  <si>
+    <t>漆黑英雄守卫你我</t>
+  </si>
+  <si>
+    <t>任何人都可以成为英雄</t>
+  </si>
+  <si>
+    <t>能量吸取</t>
+  </si>
+  <si>
+    <t>两颊上有储存电力的囊袋。一旦生气就会把储存的电力一口气释放出来。</t>
+  </si>
+  <si>
+    <t>细胞放出的微弱电流聚集到一起，便能释放强力的电击。</t>
+  </si>
+  <si>
+    <t>躯体是孩子们的巢穴。释放出各种各样的费洛蒙，自由地妨碍孩子们。</t>
+  </si>
+  <si>
+    <t>脸颊上拥有电囊的宝可梦的一员。储存的电力会从尾巴释放出去。</t>
+  </si>
+  <si>
+    <t>释放强大的精神力量，让对手陷入宇宙终结的梦境。内容似乎既虚幻又美丽。</t>
+  </si>
+  <si>
+    <t>会从耳朵内侧眼珠花纹的地方释放出精神力量，但平时会将那种力量隐藏起来。</t>
+  </si>
+  <si>
+    <t>会从蝴蝶结般的触角中释放能够消除敌意的波动，并将其传送进对手的体内。</t>
+  </si>
+  <si>
+    <t>用背上的长毛来接收闪电和电气宝可梦释放的电击，然后将之储存在电囊中。</t>
+  </si>
+  <si>
+    <t>脸上的冰块碎掉的样子。为了保护自己怕热的脸，会从毛的前端释放冷气。</t>
+  </si>
+  <si>
+    <t>由电能聚集而成。据说在解开身上的圆环后会释放出隐藏的力量。</t>
+  </si>
+  <si>
+    <t>会从蹄子释放出强力的冷气。性格粗暴，只要是自己想要的东西，就会竭尽全力去抢夺。</t>
+  </si>
+  <si>
+    <t>以自己细致透亮的肌肤为傲。会从尾巴的前端释放出凝缩的香气。</t>
+  </si>
+  <si>
+    <t>会释放出如花般的香气。肌肉发达的腿可以轻而易举地跳过５米高。</t>
+  </si>
+  <si>
+    <t>参与&lt;color=#ff9c2b&gt;对战&lt;/color&gt;可获取补给箱</t>
+  </si>
+  <si>
+    <t>参与对战或活动可获取补给箱</t>
+  </si>
+  <si>
+    <t>对战中</t>
+  </si>
+  <si>
+    <t>代表钻石段位的奖章
+通过参与主题积分赛，不断获取段位积分，收集更多奖章吧！</t>
+  </si>
+  <si>
+    <t>钻石</t>
+  </si>
+  <si>
+    <t>闪电大师</t>
+  </si>
+  <si>
+    <t>参与&lt;color=#f0ff00&gt;对战或活动&lt;/color&gt;可获取补给箱</t>
+  </si>
+  <si>
+    <t>大师月卡权益即将结束，立刻续费继续享&lt;size=32&gt;&lt;color=#f0801b&gt;11&lt;/color&gt;&lt;/size&gt;项特权</t>
+  </si>
+  <si>
+    <t>限定头像体验箱</t>
+  </si>
+  <si>
+    <t>打开宝箱后，必得限定头像框（{0}天）。并在以下奖励中随机获得一个：{1}点能量，{2}点能量，{3}个通用亿奥斯退化灯（强），{4}个通用亿奥斯退化灯（强）。</t>
+  </si>
+  <si>
+    <t>倒计时已满，无需消耗钻石</t>
+  </si>
+  <si>
+    <t>限定边框体验箱</t>
+  </si>
+  <si>
+    <t>打开宝箱后，必得限定边框（{0}天）。并且随机获得{1}/{2}/{3}/{4}点能量。</t>
+  </si>
+  <si>
+    <t>限定背景体验箱</t>
+  </si>
+  <si>
+    <t>打开宝箱后，必得限定背景（{0}天）。并且随机获得{1}/{2}/{3}/{4}点能量。</t>
+  </si>
+  <si>
+    <t>1.对战会随机掉落补给箱，每日获取数量上限15个；
+2.不同品质补给箱打开后奖励不同，品质越高补给箱奖励越好；
+3.补给箱倒计时结束后，将可打开宝箱，也可消耗宝石减倒计时时间；
+4.补给币可在兑换处兑换奖励，活动结束后，补给币清空，请及时使用；
+5.补给箱掉落概率为：超凡补给箱10%，史诗补给箱20%，稀有补给箱30%，精良补给箱40%；
+6.超凡补给箱打开物品内容概率：变装派对风格{路卡利欧}：0.79%，阳光风格{妙蛙花}：0.79%，极夜套装：1.58%，{烈空坐}套装：1.58%，补给币*12：10.51%，补给币*8：14%，补给币*5：15%，持有物强化组件*35：15.76%，持有物强化组件*25：19%，持有物强化组件*15：21.02%。
+7.史诗补给箱打开物品内容概率：{冰伊布}套装：0.53%，风雅风格{冰伊布}：0.79%，忍者风格{狙射树枭}：0.79%，热浪之夏：1.58%，补给币*8：10.51%，补给币*5：14.01%，补给币*3：15.76%，持有物强化组件*25：15.76%，持有物强化组件*15：19.26%，持有物强化组件*10：21.02%。
+8.稀有补给箱打开物品内容概率：消防风格{水箭龟}：0.44%，礼服风格{烈箭鹰}：0.52%，水手套装：1.09%，大脸帽{梦幻}：1.09%，补给币*5：13.24%，补给币*3：17.62%，持有物强化组件*15：19.74%，持有物强化组件*10：21.98%，持有物强化组件*5：24.28%。
+9.精良补给箱打开物品内容概率：守护者风格{甜冷美后}：1.26%，礼服风格{狙射树枭}：1.26%，墨镜：2.52%，简约风格：帽子：2.52%，补给币*1：16.81%，持有物强化组件*15：22.41%，持有物强化组件*10：25.21%，持有物强化组件*5：28.01%。</t>
+  </si>
+  <si>
+    <t>购买{0}个限定边框体验箱</t>
+  </si>
+  <si>
+    <t>购买{0}个限定背景体验箱</t>
+  </si>
+  <si>
+    <t>购买{0}个羁绊值加速卡（1天）</t>
+  </si>
+  <si>
+    <t>购买{0}个羁绊值加速卡（3天）</t>
+  </si>
+  <si>
+    <t>购买{0}个羁绊值加速卡（7天）</t>
+  </si>
+  <si>
+    <t>漆黑英雄系列</t>
+  </si>
+  <si>
+    <t>成为武术大师！</t>
+  </si>
+  <si>
+    <t>拯救世界，是英雄的本职</t>
+  </si>
+  <si>
+    <t>青春就是一场热血的英雄梦</t>
+  </si>
+  <si>
+    <t>漆黑英雄套装同款</t>
+  </si>
+  <si>
+    <t>打开宝箱后，必得限定边框（{0}天）。并在以下奖励中随机获得一个：{1}点能量，{2}点能量，{3}个通用能量晶石1阶段，{4}个通用能量晶石1阶段。</t>
+  </si>
+  <si>
+    <t>大师贴纸</t>
+  </si>
+  <si>
+    <t>大师背景</t>
+  </si>
+  <si>
+    <t>大师边框</t>
+  </si>
+  <si>
+    <t>拥有皮卡丘参赛证的训练家，将会在这里遇到神奇的事！</t>
+  </si>
+  <si>
+    <t>你拥有皮卡丘参赛证了么？</t>
+  </si>
+  <si>
+    <t>听说，拥有皮卡丘参赛证的训练家，将会在我身后「奇怪的装置」旁遇到神奇事！</t>
+  </si>
+  <si>
+    <t>你拥有水箭龟参赛证了么？</t>
+  </si>
+  <si>
+    <t>如果你拥有水箭龟参赛证的话，就可以帮我收集一些花朵啦。</t>
+  </si>
+  <si>
+    <t>亿奥斯岛的【小花匠】想收集一些花朵，需要你的帮助！
+参与规则：
+（1）主城里有一些花朵需要浇水，训练家们可以在主城里找一找；
+（2）拥有【水箭龟】参赛证的训练家，可以请水箭龟帮忙；
+（3）每个地方都有可能开出&lt;color=#fa883a&gt;不同的花朵&lt;/color&gt;，说不定能开出稀有花朵；
+（4）等花朵开放后就可以收集花朵啦！每日可收集的花朵数量为&lt;color=#fa883a&gt;5&lt;/color&gt;；
+（5）集齐不同种类的花朵或者收集更多的花朵，都将获得【小花匠】送出的感谢奖励。
+加油呀，训练家！</t>
+  </si>
+  <si>
+    <t>通过能量中心获得</t>
+  </si>
+  <si>
+    <t>快爆大师套装</t>
+  </si>
+  <si>
+    <t>快爆大师套装:服饰</t>
+  </si>
+  <si>
+    <t>快爆大师套装:袜子</t>
+  </si>
+  <si>
+    <t>快爆大师套装:鞋子</t>
+  </si>
+  <si>
+    <t>租用时装「热血英雄：发饰」{0}天</t>
+  </si>
+  <si>
+    <t>租用时装「热血英雄：服饰」{0}天</t>
+  </si>
+  <si>
+    <t>可在{0}天内获得时装「热血英雄：发饰」的使用权</t>
+  </si>
+  <si>
+    <t>可在{0}天内获得时装「热血英雄：服饰」的使用权</t>
+  </si>
+  <si>
+    <t>贴纸（大师专属3）</t>
+  </si>
+  <si>
+    <t>贴纸（反击大师）</t>
+  </si>
+  <si>
+    <t>贴纸（交分大师）</t>
+  </si>
+  <si>
+    <t>贴纸（守分大师）</t>
+  </si>
+  <si>
+    <t>贴纸（弹跳大师）</t>
+  </si>
+  <si>
+    <t>贴纸（团结大师）</t>
+  </si>
+  <si>
+    <t>贴纸（备受欢迎大师）</t>
+  </si>
+  <si>
+    <t>贴纸（贴纸收藏大师）</t>
+  </si>
+  <si>
+    <t>贴纸（亿奥斯大师）</t>
+  </si>
+  <si>
+    <t>贴纸（全场最佳大师）</t>
+  </si>
+  <si>
+    <t>贴纸（持有物大师）</t>
+  </si>
+  <si>
+    <t>贴纸（大师专属4）</t>
+  </si>
+  <si>
+    <t>贴纸（S1大师）</t>
+  </si>
+  <si>
+    <t>贴纸（S2大师）</t>
+  </si>
+  <si>
+    <t>贴纸（S3大师）</t>
+  </si>
+  <si>
+    <t>贴纸（漆黑英雄标志）</t>
+  </si>
+  <si>
+    <t>贴纸（徽章大师）</t>
+  </si>
+  <si>
+    <t>贴纸（金色徽章大师）</t>
+  </si>
+  <si>
+    <t>贴纸（S4大师）</t>
+  </si>
+  <si>
+    <t>贴纸（S5大师）</t>
+  </si>
+  <si>
+    <t>贴纸（S6大师）</t>
+  </si>
+  <si>
+    <t>背景（时装大师）</t>
+  </si>
+  <si>
+    <t>背景（捉来齐对战主题）</t>
+  </si>
+  <si>
+    <t>边框（快爆大师）</t>
+  </si>
+  <si>
+    <t>租用套装「漆黑英雄套装」{0}天</t>
+  </si>
+  <si>
+    <t>租用套装「热血英雄」{0}天</t>
+  </si>
+  <si>
+    <t>租用套装「漆黑英雄套装（蓝）」{0}天</t>
+  </si>
+  <si>
+    <t>可在{0}天内获得套装「漆黑英雄套装」的使用权</t>
+  </si>
+  <si>
+    <t>可在{0}天内获得套装「热血英雄」的使用权</t>
+  </si>
+  <si>
+    <t>可在{0}天内获得套装「漆黑英雄套装（蓝）」的使用权</t>
+  </si>
+  <si>
+    <t>租用「贴纸（大师专属3）」{0}天</t>
+  </si>
+  <si>
+    <t>租用「贴纸（反击大师）」{0}天</t>
+  </si>
+  <si>
+    <t>租用「贴纸（交分大师）」{0}天</t>
+  </si>
+  <si>
+    <t>租用「贴纸（守分大师）」{0}天</t>
+  </si>
+  <si>
+    <t>租用「贴纸（弹跳大师）」{0}天</t>
+  </si>
+  <si>
+    <t>租用「贴纸（团结大师）」{0}天</t>
+  </si>
+  <si>
+    <t>租用「贴纸（备受欢迎大师）」{0}天</t>
+  </si>
+  <si>
+    <t>租用「贴纸（贴纸收藏大师）」{0}天</t>
+  </si>
+  <si>
+    <t>租用「贴纸（亿奥斯大师）」{0}天</t>
+  </si>
+  <si>
+    <t>租用「贴纸（全场最佳大师）」{0}天</t>
+  </si>
+  <si>
+    <t>租用「贴纸（持有物大师）」{0}天</t>
+  </si>
+  <si>
+    <t>租用「贴纸（大师专属4）」{0}天</t>
+  </si>
+  <si>
+    <t>租用「贴纸（S1大师）」{0}天</t>
+  </si>
+  <si>
+    <t>租用「贴纸（S2大师）」{0}天</t>
+  </si>
+  <si>
+    <t>租用「贴纸（S3大师）」{0}天</t>
+  </si>
+  <si>
+    <t>租用「贴纸（漆黑英雄标志）」{0}天</t>
+  </si>
+  <si>
+    <t>租用「贴纸（徽章大师）」{0}天</t>
+  </si>
+  <si>
+    <t>租用「贴纸（金色徽章大师）」{0}天</t>
+  </si>
+  <si>
+    <t>租用「贴纸（S4大师）」{0}天</t>
+  </si>
+  <si>
+    <t>租用「贴纸（S5大师）」{0}天</t>
+  </si>
+  <si>
+    <t>租用「贴纸（S6大师）」{0}天</t>
+  </si>
+  <si>
+    <t>租用「大师贴纸」{0}天</t>
+  </si>
+  <si>
+    <t>租用「背景（时装大师）」{0}天</t>
+  </si>
+  <si>
+    <t>租用「背景（捉来齐对战主题）」{0}天</t>
+  </si>
+  <si>
+    <t>租用「大师背景」{0}天</t>
+  </si>
+  <si>
+    <t>租用「边框（快爆大师）」{0}天</t>
+  </si>
+  <si>
+    <t>租用「大师边框」{0}天</t>
+  </si>
+  <si>
+    <t>可在{0}天内获得「贴纸（大师专属3）」的使用权</t>
+  </si>
+  <si>
+    <t>可在{0}天内获得「贴纸（反击大师）」的使用权</t>
+  </si>
+  <si>
+    <t>可在{0}天内获得「贴纸（交分大师）」的使用权</t>
+  </si>
+  <si>
+    <t>可在{0}天内获得「贴纸（守分大师）」的使用权</t>
+  </si>
+  <si>
+    <t>可在{0}天内获得「贴纸（弹跳大师）」的使用权</t>
+  </si>
+  <si>
+    <t>可在{0}天内获得「贴纸（团结大师）」的使用权</t>
+  </si>
+  <si>
+    <t>可在{0}天内获得「贴纸（备受欢迎大师）」的使用权</t>
+  </si>
+  <si>
+    <t>可在{0}天内获得「贴纸（贴纸收藏大师）」的使用权</t>
+  </si>
+  <si>
+    <t>可在{0}天内获得「贴纸（亿奥斯大师）」的使用权</t>
+  </si>
+  <si>
+    <t>可在{0}天内获得「贴纸（全场最佳大师）」的使用权</t>
+  </si>
+  <si>
+    <t>可在{0}天内获得「贴纸（持有物大师）」的使用权</t>
+  </si>
+  <si>
+    <t>可在{0}天内获得「贴纸（大师专属4）」的使用权</t>
+  </si>
+  <si>
+    <t>可在{0}天内获得「贴纸（S1大师）」的使用权</t>
+  </si>
+  <si>
+    <t>可在{0}天内获得「贴纸（S2大师）」的使用权</t>
+  </si>
+  <si>
+    <t>可在{0}天内获得「贴纸（S3大师）」的使用权</t>
+  </si>
+  <si>
+    <t>可在{0}天内获得「贴纸（漆黑英雄标志）」的使用权</t>
+  </si>
+  <si>
+    <t>可在{0}天内获得「贴纸（徽章大师）」的使用权</t>
+  </si>
+  <si>
+    <t>可在{0}天内获得「贴纸（金色徽章大师）」的使用权</t>
+  </si>
+  <si>
+    <t>可在{0}天内获得「贴纸（S4大师）」的使用权</t>
+  </si>
+  <si>
+    <t>可在{0}天内获得「贴纸（S5大师）」的使用权</t>
+  </si>
+  <si>
+    <t>可在{0}天内获得「贴纸（S6大师）」的使用权</t>
+  </si>
+  <si>
+    <t>可在{0}天内获得「大师贴纸」的使用权</t>
+  </si>
+  <si>
+    <t>可在{0}天内获得「背景（时装大师）」的使用权</t>
+  </si>
+  <si>
+    <t>可在{0}天内获得「背景（捉来齐对战主题）」的使用权</t>
+  </si>
+  <si>
+    <t>可在{0}天内获得「大师背景」的使用权</t>
+  </si>
+  <si>
+    <t>可在{0}天内获得「边框（快爆大师）」的使用权</t>
+  </si>
+  <si>
+    <t>可在{0}天内获得「大师边框」的使用权</t>
+  </si>
+  <si>
+    <t>那就是和沙奈朵一起并肩作战！沙奈朵的样子最让人心动了~</t>
+  </si>
+  <si>
+    <t>参赛证部件随机盒（{0}天）</t>
+  </si>
+  <si>
+    <t>打开可随机获得以下参赛证体验卡之一。</t>
+  </si>
+  <si>
+    <t>收集水手里剑
+领甲贺忍蛙参赛证</t>
+  </si>
+  <si>
+    <t>（1）通过完成每日任务和挑战任务收集进度可直接领取甲贺忍蛙参赛证；
+（2）每日任务将在北京时间{0}点刷新，请训练家注意刷新时间；
+（3）除了完成任务获取进度外，训练家还可以直接购买进度快速获得甲贺忍蛙参赛证；</t>
+  </si>
+  <si>
+    <t>租用参赛证自选盒（{0}天）</t>
+  </si>
+  <si>
+    <t>打开可自选一个{0}天租用参赛证，包括有：租用参赛证-妙蛙花、租用参赛证-呆壳兽、租用参赛证-玛力露丽、租用参赛证-皮可西、租用参赛证-叶伊布</t>
+  </si>
+  <si>
+    <t>贴纸（S1闪电大师）</t>
+  </si>
+  <si>
+    <t>边框（S1闪电大师）</t>
+  </si>
+  <si>
+    <t>背景（S1闪电大师）</t>
+  </si>
+  <si>
+    <t>收集水手里剑领甲贺忍蛙参赛证</t>
+  </si>
+  <si>
+    <t>点亮《皮卡丘珍藏》图鉴任意2个电子服，可领取参赛卡贴纸</t>
+  </si>
+  <si>
+    <t>点亮《皮卡丘珍藏》图鉴任意3个电子服，可领取参赛卡贴纸</t>
+  </si>
+  <si>
+    <t>点亮《皮卡丘珍藏》图鉴任意4个电子服，可领取参赛卡背景</t>
+  </si>
+  <si>
+    <t>点亮《霓裳雅韵》图鉴中戏曲套装（共2个部件），可领取参赛卡边框</t>
+  </si>
+  <si>
+    <t>获得《霓裳雅韵》图鉴任意4个电子服，可领取参赛卡背景</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -647,6 +1296,18 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -656,12 +1317,25 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -670,9 +1344,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -999,987 +1679,2062 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A134B6B-FDD0-2A43-97E7-3CE81C801352}">
-  <dimension ref="A1:A195"/>
+  <dimension ref="A1:A410"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A2" sqref="A2:A410"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>194</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A204" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" ht="117" x14ac:dyDescent="0.3">
+      <c r="A212" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A213" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" ht="260" x14ac:dyDescent="0.3">
+      <c r="A214" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" ht="65" x14ac:dyDescent="0.3">
+      <c r="A215" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" ht="65" x14ac:dyDescent="0.3">
+      <c r="A216" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" ht="65" x14ac:dyDescent="0.3">
+      <c r="A217" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" ht="78" x14ac:dyDescent="0.3">
+      <c r="A218" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A219" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" ht="26" x14ac:dyDescent="0.3">
+      <c r="A220" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A221" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" ht="26" x14ac:dyDescent="0.3">
+      <c r="A222" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A223" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A224" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" ht="26" x14ac:dyDescent="0.3">
+      <c r="A225" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" ht="39" x14ac:dyDescent="0.3">
+      <c r="A226" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A227" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" ht="65" x14ac:dyDescent="0.3">
+      <c r="A228" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" ht="117" x14ac:dyDescent="0.3">
+      <c r="A229" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A230" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A231" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" ht="78" x14ac:dyDescent="0.3">
+      <c r="A232" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A233" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" ht="26" x14ac:dyDescent="0.3">
+      <c r="A234" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A235" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" ht="39" x14ac:dyDescent="0.3">
+      <c r="A236" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" ht="247" x14ac:dyDescent="0.3">
+      <c r="A237" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" ht="52" x14ac:dyDescent="0.3">
+      <c r="A238" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" ht="26" x14ac:dyDescent="0.3">
+      <c r="A239" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" ht="26" x14ac:dyDescent="0.3">
+      <c r="A240" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A241" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" ht="39" x14ac:dyDescent="0.3">
+      <c r="A242" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" ht="39" x14ac:dyDescent="0.3">
+      <c r="A243" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" ht="39" x14ac:dyDescent="0.3">
+      <c r="A244" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" ht="26" x14ac:dyDescent="0.3">
+      <c r="A245" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" ht="26" x14ac:dyDescent="0.3">
+      <c r="A246" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A247" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" ht="78" x14ac:dyDescent="0.3">
+      <c r="A248" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" ht="65" x14ac:dyDescent="0.3">
+      <c r="A249" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" ht="78" x14ac:dyDescent="0.3">
+      <c r="A250" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" ht="65" x14ac:dyDescent="0.3">
+      <c r="A251" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" ht="78" x14ac:dyDescent="0.3">
+      <c r="A252" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" ht="78" x14ac:dyDescent="0.3">
+      <c r="A253" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" ht="78" x14ac:dyDescent="0.3">
+      <c r="A254" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" ht="78" x14ac:dyDescent="0.3">
+      <c r="A255" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" ht="78" x14ac:dyDescent="0.3">
+      <c r="A256" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" ht="65" x14ac:dyDescent="0.3">
+      <c r="A257" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" ht="91" x14ac:dyDescent="0.3">
+      <c r="A258" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" ht="65" x14ac:dyDescent="0.3">
+      <c r="A259" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" ht="65" x14ac:dyDescent="0.3">
+      <c r="A260" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" ht="65" x14ac:dyDescent="0.3">
+      <c r="A261" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" ht="39" x14ac:dyDescent="0.3">
+      <c r="A262" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A263" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" ht="91" x14ac:dyDescent="0.3">
+      <c r="A264" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A265" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A266" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" ht="65" x14ac:dyDescent="0.3">
+      <c r="A267" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" ht="91" x14ac:dyDescent="0.3">
+      <c r="A268" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" ht="26" x14ac:dyDescent="0.3">
+      <c r="A269" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" ht="26" x14ac:dyDescent="0.3">
+      <c r="A270" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" ht="156" x14ac:dyDescent="0.3">
+      <c r="A271" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" ht="26" x14ac:dyDescent="0.3">
+      <c r="A272" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" ht="26" x14ac:dyDescent="0.3">
+      <c r="A273" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" ht="78" x14ac:dyDescent="0.3">
+      <c r="A274" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" ht="26" x14ac:dyDescent="0.3">
+      <c r="A275" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" ht="78" x14ac:dyDescent="0.3">
+      <c r="A276" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A277" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" ht="26" x14ac:dyDescent="0.3">
+      <c r="A278" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" ht="26" x14ac:dyDescent="0.3">
+      <c r="A279" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" ht="39" x14ac:dyDescent="0.3">
+      <c r="A280" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" ht="39" x14ac:dyDescent="0.3">
+      <c r="A281" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" ht="39" x14ac:dyDescent="0.3">
+      <c r="A282" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A283" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" ht="26" x14ac:dyDescent="0.3">
+      <c r="A284" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" ht="26" x14ac:dyDescent="0.3">
+      <c r="A285" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" ht="26" x14ac:dyDescent="0.3">
+      <c r="A286" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" ht="26" x14ac:dyDescent="0.3">
+      <c r="A287" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" ht="156" x14ac:dyDescent="0.3">
+      <c r="A288" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A289" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A290" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A291" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" ht="65" x14ac:dyDescent="0.3">
+      <c r="A292" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" ht="26" x14ac:dyDescent="0.3">
+      <c r="A293" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" ht="78" x14ac:dyDescent="0.3">
+      <c r="A294" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" ht="26" x14ac:dyDescent="0.3">
+      <c r="A295" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" ht="65" x14ac:dyDescent="0.3">
+      <c r="A296" s="2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A297" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" ht="26" x14ac:dyDescent="0.3">
+      <c r="A298" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A299" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" ht="26" x14ac:dyDescent="0.3">
+      <c r="A300" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" ht="26" x14ac:dyDescent="0.3">
+      <c r="A301" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" ht="26" x14ac:dyDescent="0.3">
+      <c r="A302" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" ht="39" x14ac:dyDescent="0.3">
+      <c r="A303" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" ht="39" x14ac:dyDescent="0.3">
+      <c r="A304" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" ht="52" x14ac:dyDescent="0.3">
+      <c r="A305" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" ht="52" x14ac:dyDescent="0.3">
+      <c r="A306" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" ht="26" x14ac:dyDescent="0.3">
+      <c r="A307" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" ht="26" x14ac:dyDescent="0.3">
+      <c r="A308" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" ht="26" x14ac:dyDescent="0.3">
+      <c r="A309" s="2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" ht="26" x14ac:dyDescent="0.3">
+      <c r="A310" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" ht="26" x14ac:dyDescent="0.3">
+      <c r="A311" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" ht="26" x14ac:dyDescent="0.3">
+      <c r="A312" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" ht="26" x14ac:dyDescent="0.3">
+      <c r="A313" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" ht="26" x14ac:dyDescent="0.3">
+      <c r="A314" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" ht="26" x14ac:dyDescent="0.3">
+      <c r="A315" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" ht="26" x14ac:dyDescent="0.3">
+      <c r="A316" s="2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" ht="26" x14ac:dyDescent="0.3">
+      <c r="A317" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" ht="26" x14ac:dyDescent="0.3">
+      <c r="A318" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" ht="26" x14ac:dyDescent="0.3">
+      <c r="A319" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" ht="26" x14ac:dyDescent="0.3">
+      <c r="A320" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" ht="26" x14ac:dyDescent="0.3">
+      <c r="A321" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" ht="26" x14ac:dyDescent="0.3">
+      <c r="A322" s="2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" ht="26" x14ac:dyDescent="0.3">
+      <c r="A323" s="2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" ht="26" x14ac:dyDescent="0.3">
+      <c r="A324" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" ht="26" x14ac:dyDescent="0.3">
+      <c r="A325" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" ht="26" x14ac:dyDescent="0.3">
+      <c r="A326" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" ht="26" x14ac:dyDescent="0.3">
+      <c r="A327" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A328" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" ht="26" x14ac:dyDescent="0.3">
+      <c r="A329" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" ht="26" x14ac:dyDescent="0.3">
+      <c r="A330" s="2" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A331" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" ht="26" x14ac:dyDescent="0.3">
+      <c r="A332" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A333" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" ht="39" x14ac:dyDescent="0.3">
+      <c r="A334" s="2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" ht="26" x14ac:dyDescent="0.3">
+      <c r="A335" s="2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" ht="39" x14ac:dyDescent="0.3">
+      <c r="A336" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" ht="52" x14ac:dyDescent="0.3">
+      <c r="A337" s="2" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" ht="52" x14ac:dyDescent="0.3">
+      <c r="A338" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" ht="65" x14ac:dyDescent="0.3">
+      <c r="A339" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" ht="39" x14ac:dyDescent="0.3">
+      <c r="A340" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" ht="39" x14ac:dyDescent="0.3">
+      <c r="A341" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" ht="39" x14ac:dyDescent="0.3">
+      <c r="A342" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" ht="39" x14ac:dyDescent="0.3">
+      <c r="A343" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" ht="39" x14ac:dyDescent="0.3">
+      <c r="A344" s="2" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" ht="39" x14ac:dyDescent="0.3">
+      <c r="A345" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" ht="39" x14ac:dyDescent="0.3">
+      <c r="A346" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" ht="39" x14ac:dyDescent="0.3">
+      <c r="A347" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" ht="39" x14ac:dyDescent="0.3">
+      <c r="A348" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" ht="39" x14ac:dyDescent="0.3">
+      <c r="A349" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" ht="39" x14ac:dyDescent="0.3">
+      <c r="A350" s="2" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" ht="39" x14ac:dyDescent="0.3">
+      <c r="A351" s="2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" ht="39" x14ac:dyDescent="0.3">
+      <c r="A352" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" ht="39" x14ac:dyDescent="0.3">
+      <c r="A353" s="2" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" ht="39" x14ac:dyDescent="0.3">
+      <c r="A354" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" ht="39" x14ac:dyDescent="0.3">
+      <c r="A355" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" ht="39" x14ac:dyDescent="0.3">
+      <c r="A356" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" ht="39" x14ac:dyDescent="0.3">
+      <c r="A357" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" ht="39" x14ac:dyDescent="0.3">
+      <c r="A358" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" ht="39" x14ac:dyDescent="0.3">
+      <c r="A359" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" ht="39" x14ac:dyDescent="0.3">
+      <c r="A360" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" ht="26" x14ac:dyDescent="0.3">
+      <c r="A361" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" ht="39" x14ac:dyDescent="0.3">
+      <c r="A362" s="2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" ht="39" x14ac:dyDescent="0.3">
+      <c r="A363" s="2" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" ht="26" x14ac:dyDescent="0.3">
+      <c r="A364" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" ht="39" x14ac:dyDescent="0.3">
+      <c r="A365" s="2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" ht="26" x14ac:dyDescent="0.3">
+      <c r="A366" s="2" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" ht="52" x14ac:dyDescent="0.3">
+      <c r="A367" s="2" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1" ht="52" x14ac:dyDescent="0.3">
+      <c r="A368" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" ht="52" x14ac:dyDescent="0.3">
+      <c r="A369" s="2" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" ht="52" x14ac:dyDescent="0.3">
+      <c r="A370" s="2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" ht="52" x14ac:dyDescent="0.3">
+      <c r="A371" s="2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" ht="52" x14ac:dyDescent="0.3">
+      <c r="A372" s="2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" ht="52" x14ac:dyDescent="0.3">
+      <c r="A373" s="2" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" ht="52" x14ac:dyDescent="0.3">
+      <c r="A374" s="2" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1" ht="52" x14ac:dyDescent="0.3">
+      <c r="A375" s="2" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" ht="52" x14ac:dyDescent="0.3">
+      <c r="A376" s="2" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" ht="52" x14ac:dyDescent="0.3">
+      <c r="A377" s="2" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" ht="52" x14ac:dyDescent="0.3">
+      <c r="A378" s="2" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1" ht="52" x14ac:dyDescent="0.3">
+      <c r="A379" s="2" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1" ht="52" x14ac:dyDescent="0.3">
+      <c r="A380" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1" ht="52" x14ac:dyDescent="0.3">
+      <c r="A381" s="2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1" ht="52" x14ac:dyDescent="0.3">
+      <c r="A382" s="2" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1" ht="52" x14ac:dyDescent="0.3">
+      <c r="A383" s="2" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1" ht="52" x14ac:dyDescent="0.3">
+      <c r="A384" s="2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1" ht="52" x14ac:dyDescent="0.3">
+      <c r="A385" s="2" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1" ht="52" x14ac:dyDescent="0.3">
+      <c r="A386" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1" ht="52" x14ac:dyDescent="0.3">
+      <c r="A387" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1" ht="39" x14ac:dyDescent="0.3">
+      <c r="A388" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1" ht="52" x14ac:dyDescent="0.3">
+      <c r="A389" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1" ht="65" x14ac:dyDescent="0.3">
+      <c r="A390" s="2" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1" ht="39" x14ac:dyDescent="0.3">
+      <c r="A391" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1" ht="52" x14ac:dyDescent="0.3">
+      <c r="A392" s="2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1" ht="39" x14ac:dyDescent="0.3">
+      <c r="A393" s="2" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1" ht="65" x14ac:dyDescent="0.3">
+      <c r="A394" s="2" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1" ht="26" x14ac:dyDescent="0.3">
+      <c r="A395" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1" ht="39" x14ac:dyDescent="0.3">
+      <c r="A396" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1" ht="39" x14ac:dyDescent="0.3">
+      <c r="A397" s="2" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1" ht="234" x14ac:dyDescent="0.3">
+      <c r="A398" s="2" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1" ht="26" x14ac:dyDescent="0.3">
+      <c r="A399" s="2" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1" ht="156" x14ac:dyDescent="0.3">
+      <c r="A400" s="2" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1" ht="26" x14ac:dyDescent="0.3">
+      <c r="A401" s="2" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1" ht="26" x14ac:dyDescent="0.3">
+      <c r="A402" s="2" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1" ht="26" x14ac:dyDescent="0.3">
+      <c r="A403" s="2" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1" ht="39" x14ac:dyDescent="0.3">
+      <c r="A404" s="2" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1" ht="65" x14ac:dyDescent="0.3">
+      <c r="A405" s="2" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1" ht="65" x14ac:dyDescent="0.3">
+      <c r="A406" s="2" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1" ht="65" x14ac:dyDescent="0.3">
+      <c r="A407" s="2" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1" ht="78" x14ac:dyDescent="0.3">
+      <c r="A408" s="2" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1" ht="65" x14ac:dyDescent="0.3">
+      <c r="A409" s="2" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A410" s="2" t="s">
+        <v>263</v>
       </c>
     </row>
   </sheetData>
